--- a/сопровождение.xlsx
+++ b/сопровождение.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>10char</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,6 +754,14 @@
       </c>
       <c r="D26" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
